--- a/Slides/data/Bitterlich-Soares-et-al-2010.xlsx
+++ b/Slides/data/Bitterlich-Soares-et-al-2010.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEIVISON\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFEE928-A3B7-4F79-B30B-D0844C5D94C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49869943-7D92-47AD-BD74-B81FB7307808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{3B2AB8B8-5136-4B86-B46E-9285716F707E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{3B2AB8B8-5136-4B86-B46E-9285716F707E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>d (cm)</t>
   </si>
@@ -340,7 +341,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -572,7 +573,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -580,12 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,7 +607,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,11 +625,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -652,7 +653,102 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="172" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -705,35 +801,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -749,26 +816,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -804,7 +852,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="172" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -972,13 +1020,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -991,6 +1032,61 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1160,8 +1256,8 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1441450" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1306,7 +1402,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1429,8 +1525,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3828955" cy="845616"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1819,7 +1915,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1918,8 +2014,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3828955" cy="840295"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -2334,7 +2430,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -2429,27 +2525,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3FEA631-F8D7-4F78-B89C-85241BA305F9}" name="Tabela1" displayName="Tabela1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3FEA631-F8D7-4F78-B89C-85241BA305F9}" name="Tabela1" displayName="Tabela1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:H38" xr:uid="{B3FEA631-F8D7-4F78-B89C-85241BA305F9}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E3613D79-5B5F-4313-91AC-810567F60D8F}" name="Ponto" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{136F5277-00AB-4508-82E8-16D9C07EF2C1}" name="Árvore" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4EB25418-A154-4F02-894C-B97408284556}" name="d (cm)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5AE7A31E-3E5A-4190-B7C5-46C854B678B7}" name="Ht (m)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A96508DE-D8A0-45A7-A34D-C71CA3972004}" name="Vi (m³)" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{E3613D79-5B5F-4313-91AC-810567F60D8F}" name="Ponto" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{136F5277-00AB-4508-82E8-16D9C07EF2C1}" name="Árvore" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4EB25418-A154-4F02-894C-B97408284556}" name="d (cm)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{5AE7A31E-3E5A-4190-B7C5-46C854B678B7}" name="Ht (m)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A96508DE-D8A0-45A7-A34D-C71CA3972004}" name="Vi (m³)" dataDxfId="8">
       <calculatedColumnFormula>0.00007423*(C2^$R$8)*(D2^$R$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0936FEC6-1D14-4FD7-AA01-AA38806CEA54}" name="gi (m²)" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{0936FEC6-1D14-4FD7-AA01-AA38806CEA54}" name="gi (m²)" dataDxfId="7">
       <calculatedColumnFormula>PI()*C2^2/40000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DEF814C7-F947-486E-96D7-C53D61F1748C}" name="1/gi" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{DEF814C7-F947-486E-96D7-C53D61F1748C}" name="1/gi" dataDxfId="6">
       <calculatedColumnFormula>1/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{04CDF7FF-5C72-4241-95F4-44BA85AD6F82}" name="(FAB/gi).vi" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{04CDF7FF-5C72-4241-95F4-44BA85AD6F82}" name="(FAB/gi).vi" dataDxfId="5">
       <calculatedColumnFormula>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41B9612C-9E24-4B9F-A5B2-2A18E5201561}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{41B9612C-9E24-4B9F-A5B2-2A18E5201561}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{38ED5867-942A-4A62-85F2-DEE652999A22}" name="Ponto" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0892E2FC-CDA5-4413-AC65-66786DBDDAC8}" name="m" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D0A35509-F5FB-4D83-A6DD-383CA9B3D015}" name="G ( m².ha-1)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{115B6053-4CFD-4682-9195-EC9D2155AD9F}" name="N ( Árvore.ha-1)"/>
+    <tableColumn id="5" xr3:uid="{0FC480E7-33B0-436D-9BB1-743F91A1D3A2}" name="V ( m³.ha-1)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2772,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD45D73-7E86-4845-95AA-3943C596FDA3}">
   <dimension ref="A1:W224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2792,33 +2902,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="4">
@@ -2831,14 +2941,14 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <f>0.00007423*(C2^$R$8)*(D2^$R$9)</f>
+        <f t="shared" ref="E2:E38" si="0">0.00007423*(C2^$R$8)*(D2^$R$9)</f>
         <v>9.9454027194796651E-2</v>
       </c>
       <c r="F2" s="9">
         <f>PI()*C2^2/40000</f>
         <v>3.1102552668702346E-2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <f>1/F2</f>
         <v>32.151701844275721</v>
       </c>
@@ -2848,7 +2958,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -2861,15 +2971,15 @@
         <v>12</v>
       </c>
       <c r="E3" s="9">
-        <f>0.00007423*(C3^$R$8)*(D3^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.18129028036876832</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F38" si="0">PI()*C3^2/40000</f>
+        <f t="shared" ref="F3:F38" si="1">PI()*C3^2/40000</f>
         <v>2.4328493509399363E-2</v>
       </c>
-      <c r="G3" s="16">
-        <f t="shared" ref="G3:G38" si="1">1/F3</f>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G38" si="2">1/F3</f>
         <v>41.104065881171309</v>
       </c>
       <c r="H3" s="9">
@@ -2878,7 +2988,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="4">
@@ -2891,15 +3001,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="9">
-        <f>0.00007423*(C4^$R$8)*(D4^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>8.3606392091574513E-3</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4178646691106467E-3</v>
       </c>
-      <c r="G4" s="16">
-        <f t="shared" si="1"/>
+      <c r="G4" s="14">
+        <f t="shared" si="2"/>
         <v>226.35369684180671</v>
       </c>
       <c r="H4" s="9">
@@ -2908,7 +3018,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -2921,15 +3031,15 @@
         <v>10</v>
       </c>
       <c r="E5" s="9">
-        <f>0.00007423*(C5^$R$8)*(D5^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>8.8487183640195713E-2</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3478217882063609E-2</v>
       </c>
-      <c r="G5" s="16">
-        <f t="shared" si="1"/>
+      <c r="G5" s="14">
+        <f t="shared" si="2"/>
         <v>74.193785020404576</v>
       </c>
       <c r="H5" s="9">
@@ -2938,7 +3048,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="4">
@@ -2951,15 +3061,15 @@
         <v>15.8</v>
       </c>
       <c r="E6" s="9">
-        <f>0.00007423*(C6^$R$8)*(D6^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.34911238251499055</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5968094290949534E-2</v>
       </c>
-      <c r="G6" s="16">
-        <f t="shared" si="1"/>
+      <c r="G6" s="14">
+        <f t="shared" si="2"/>
         <v>27.802418218516092</v>
       </c>
       <c r="H6" s="9">
@@ -2968,7 +3078,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
       <c r="B7" s="4">
@@ -2981,15 +3091,15 @@
         <v>15</v>
       </c>
       <c r="E7" s="9">
-        <f>0.00007423*(C7^$R$8)*(D7^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.98871245681834774</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13074051987179283</v>
       </c>
-      <c r="G7" s="16">
-        <f t="shared" si="1"/>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
         <v>7.6487381339818983</v>
       </c>
       <c r="H7" s="9">
@@ -2998,7 +3108,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
       <c r="B8" s="4">
@@ -3011,25 +3121,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="9">
-        <f>0.00007423*(C8^$R$8)*(D8^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>1.8563850193812511E-2</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5256523554911454E-3</v>
       </c>
-      <c r="G8" s="16">
-        <f t="shared" si="1"/>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
         <v>283.63545215753237</v>
       </c>
       <c r="H8" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>5.2653660435067069</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="26">
         <v>1</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -3041,7 +3151,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
       <c r="B9" s="4">
@@ -3054,15 +3164,15 @@
         <v>7</v>
       </c>
       <c r="E9" s="9">
-        <f>0.00007423*(C9^$R$8)*(D9^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.8430529917407753E-2</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8088048164875268E-3</v>
       </c>
-      <c r="G9" s="16">
-        <f t="shared" si="1"/>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
         <v>172.15245331735571</v>
       </c>
       <c r="H9" s="9">
@@ -3077,7 +3187,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>2</v>
       </c>
       <c r="B10" s="4">
@@ -3090,15 +3200,15 @@
         <v>9</v>
       </c>
       <c r="E10" s="9">
-        <f>0.00007423*(C10^$R$8)*(D10^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>7.0255223676986042E-2</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1882288814039996E-2</v>
       </c>
-      <c r="G10" s="16">
-        <f t="shared" si="1"/>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
         <v>84.158870033390343</v>
       </c>
       <c r="H10" s="9">
@@ -3110,7 +3220,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>2</v>
       </c>
       <c r="B11" s="4">
@@ -3123,15 +3233,15 @@
         <v>6</v>
       </c>
       <c r="E11" s="9">
-        <f>0.00007423*(C11^$R$8)*(D11^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>1.0390085678093611E-2</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2061834409834321E-3</v>
       </c>
-      <c r="G11" s="16">
-        <f t="shared" si="1"/>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
         <v>453.2714648398586</v>
       </c>
       <c r="H11" s="9">
@@ -3140,7 +3250,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>2</v>
       </c>
       <c r="B12" s="4">
@@ -3153,15 +3263,15 @@
         <v>10.3</v>
       </c>
       <c r="E12" s="9">
-        <f>0.00007423*(C12^$R$8)*(D12^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>7.8858888640063116E-2</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1309733552923255E-2</v>
       </c>
-      <c r="G12" s="16">
-        <f t="shared" si="1"/>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
         <v>88.419412828830744</v>
       </c>
       <c r="H12" s="9">
@@ -3170,7 +3280,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
       <c r="B13" s="4">
@@ -3183,15 +3293,15 @@
         <v>8</v>
       </c>
       <c r="E13" s="9">
-        <f>0.00007423*(C13^$R$8)*(D13^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>6.4658391485809832E-2</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2667686977437443E-2</v>
       </c>
-      <c r="G13" s="16">
-        <f t="shared" si="1"/>
+      <c r="G13" s="14">
+        <f t="shared" si="2"/>
         <v>78.941009655599402</v>
       </c>
       <c r="H13" s="9">
@@ -3200,7 +3310,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>2</v>
       </c>
       <c r="B14" s="4">
@@ -3213,15 +3323,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="9">
-        <f>0.00007423*(C14^$R$8)*(D14^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.12182329244318127</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7203361371057709E-2</v>
       </c>
-      <c r="G14" s="16">
-        <f t="shared" si="1"/>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
         <v>58.128174978778425</v>
       </c>
       <c r="H14" s="9">
@@ -3244,7 +3354,7 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>2</v>
       </c>
       <c r="B15" s="4">
@@ -3257,38 +3367,38 @@
         <v>4</v>
       </c>
       <c r="E15" s="9">
-        <f>0.00007423*(C15^$R$8)*(D15^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>6.0575019028902572E-3</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.042820622996763E-3</v>
       </c>
-      <c r="G15" s="16">
-        <f t="shared" si="1"/>
+      <c r="G15" s="14">
+        <f t="shared" si="2"/>
         <v>489.51924057484149</v>
       </c>
       <c r="H15" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>2.9652637312834957</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="4">
@@ -3301,38 +3411,38 @@
         <v>11</v>
       </c>
       <c r="E16" s="9">
-        <f>0.00007423*(C16^$R$8)*(D16^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.29816482754496626</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9087385212340517E-2</v>
       </c>
-      <c r="G16" s="16">
-        <f t="shared" si="1"/>
+      <c r="G16" s="14">
+        <f t="shared" si="2"/>
         <v>20.371832715762604</v>
       </c>
       <c r="H16" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>6.074163988470259</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="4">
@@ -3345,38 +3455,38 @@
         <v>11.7</v>
       </c>
       <c r="E17" s="9">
-        <f>0.00007423*(C17^$R$8)*(D17^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.11049953387708195</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4102609421964582E-2</v>
       </c>
-      <c r="G17" s="16">
-        <f t="shared" si="1"/>
+      <c r="G17" s="14">
+        <f t="shared" si="2"/>
         <v>70.908863039383093</v>
       </c>
       <c r="H17" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>7.8353963136056759</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>3</v>
       </c>
       <c r="B18" s="4">
@@ -3389,38 +3499,38 @@
         <v>13</v>
       </c>
       <c r="E18" s="9">
-        <f>0.00007423*(C18^$R$8)*(D18^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.43181072363285244</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0262815679322811E-2</v>
       </c>
-      <c r="G18" s="16">
-        <f t="shared" si="1"/>
+      <c r="G18" s="14">
+        <f t="shared" si="2"/>
         <v>16.593980694850224</v>
       </c>
       <c r="H18" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>7.1654588117928588</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>3</v>
       </c>
       <c r="B19" s="4">
@@ -3433,38 +3543,38 @@
         <v>22.4</v>
       </c>
       <c r="E19" s="9">
-        <f>0.00007423*(C19^$R$8)*(D19^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.5333739122032306</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6643536711471351E-2</v>
       </c>
-      <c r="G19" s="16">
-        <f t="shared" si="1"/>
+      <c r="G19" s="14">
+        <f t="shared" si="2"/>
         <v>27.289942231120598</v>
       </c>
       <c r="H19" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>14.555743251612952</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>3</v>
       </c>
       <c r="B20" s="4">
@@ -3477,15 +3587,15 @@
         <v>12.9</v>
       </c>
       <c r="E20" s="9">
-        <f>0.00007423*(C20^$R$8)*(D20^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.21481375601978797</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6880252142277669E-2</v>
       </c>
-      <c r="G20" s="16">
-        <f t="shared" si="1"/>
+      <c r="G20" s="14">
+        <f t="shared" si="2"/>
         <v>37.202031986418191</v>
       </c>
       <c r="H20" s="9">
@@ -3494,7 +3604,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>4</v>
       </c>
       <c r="B21" s="4">
@@ -3507,38 +3617,38 @@
         <v>11</v>
       </c>
       <c r="E21" s="9">
-        <f>0.00007423*(C21^$R$8)*(D21^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.12323201859603432</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.743662462558675E-2</v>
       </c>
-      <c r="G21" s="16">
-        <f t="shared" si="1"/>
+      <c r="G21" s="14">
+        <f t="shared" si="2"/>
         <v>57.350549287652029</v>
       </c>
       <c r="H21" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>7.0674239563087173</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <v>4</v>
       </c>
       <c r="B22" s="4">
@@ -3551,15 +3661,15 @@
         <v>8</v>
       </c>
       <c r="E22" s="9">
-        <f>0.00007423*(C22^$R$8)*(D22^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.14522529526783956</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2685129967948208E-2</v>
       </c>
-      <c r="G22" s="16">
-        <f t="shared" si="1"/>
+      <c r="G22" s="14">
+        <f t="shared" si="2"/>
         <v>30.594952535927593</v>
       </c>
       <c r="H22" s="9">
@@ -3568,7 +3678,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <v>4</v>
       </c>
       <c r="B23" s="4">
@@ -3581,27 +3691,27 @@
         <v>10</v>
       </c>
       <c r="E23" s="9">
-        <f>0.00007423*(C23^$R$8)*(D23^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.10523708173644518</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6512996385431349E-2</v>
       </c>
-      <c r="G23" s="16">
-        <f t="shared" si="1"/>
+      <c r="G23" s="14">
+        <f t="shared" si="2"/>
         <v>60.558361224026768</v>
       </c>
       <c r="H23" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>6.3729852099580775</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <v>4</v>
       </c>
       <c r="B24" s="4">
@@ -3614,15 +3724,15 @@
         <v>11</v>
       </c>
       <c r="E24" s="9">
-        <f>0.00007423*(C24^$R$8)*(D24^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.18328089169241624</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7759112687119416E-2</v>
       </c>
-      <c r="G24" s="16">
-        <f t="shared" si="1"/>
+      <c r="G24" s="14">
+        <f t="shared" si="2"/>
         <v>36.024206222701523</v>
       </c>
       <c r="H24" s="9">
@@ -3631,7 +3741,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="A25" s="13">
         <v>4</v>
       </c>
       <c r="B25" s="4">
@@ -3644,15 +3754,15 @@
         <v>9</v>
       </c>
       <c r="E25" s="9">
-        <f>0.00007423*(C25^$R$8)*(D25^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.1751135599412138</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4636059005827467E-2</v>
       </c>
-      <c r="G25" s="16">
-        <f t="shared" si="1"/>
+      <c r="G25" s="14">
+        <f t="shared" si="2"/>
         <v>28.871645005332489</v>
       </c>
       <c r="H25" s="9">
@@ -3667,7 +3777,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>4</v>
       </c>
       <c r="B26" s="4">
@@ -3680,15 +3790,15 @@
         <v>6</v>
       </c>
       <c r="E26" s="9">
-        <f>0.00007423*(C26^$R$8)*(D26^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>1.2841127332458164E-2</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8274333882308137E-3</v>
       </c>
-      <c r="G26" s="16">
-        <f t="shared" si="1"/>
+      <c r="G26" s="14">
+        <f t="shared" si="2"/>
         <v>353.67765131532298</v>
       </c>
       <c r="H26" s="9">
@@ -3697,7 +3807,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
+      <c r="A27" s="13">
         <v>4</v>
       </c>
       <c r="B27" s="4">
@@ -3710,15 +3820,15 @@
         <v>7</v>
       </c>
       <c r="E27" s="9">
-        <f>0.00007423*(C27^$R$8)*(D27^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.302110777384566E-2</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5364597917836608E-3</v>
       </c>
-      <c r="G27" s="16">
-        <f t="shared" si="1"/>
+      <c r="G27" s="14">
+        <f t="shared" si="2"/>
         <v>220.43620926855311</v>
       </c>
       <c r="H27" s="9">
@@ -3736,7 +3846,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
+      <c r="A28" s="13">
         <v>4</v>
       </c>
       <c r="B28" s="4">
@@ -3749,15 +3859,15 @@
         <v>7</v>
       </c>
       <c r="E28" s="9">
-        <f>0.00007423*(C28^$R$8)*(D28^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>1.8563850193812511E-2</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5256523554911454E-3</v>
       </c>
-      <c r="G28" s="16">
-        <f t="shared" si="1"/>
+      <c r="G28" s="14">
+        <f t="shared" si="2"/>
         <v>283.63545215753237</v>
       </c>
       <c r="H28" s="9">
@@ -3777,7 +3887,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>4</v>
       </c>
       <c r="B29" s="4">
@@ -3790,15 +3900,15 @@
         <v>8</v>
       </c>
       <c r="E29" s="9">
-        <f>0.00007423*(C29^$R$8)*(D29^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.5121199913778203E-2</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1853868127450016E-3</v>
       </c>
-      <c r="G29" s="16">
-        <f t="shared" si="1"/>
+      <c r="G29" s="14">
+        <f t="shared" si="2"/>
         <v>238.92654245358656</v>
       </c>
       <c r="H29" s="9">
@@ -3813,12 +3923,12 @@
         <v>9</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29:N32" si="2">M29*$O$25</f>
+        <f t="shared" ref="N29:N32" si="3">M29*$O$25</f>
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>5</v>
       </c>
       <c r="B30" s="4">
@@ -3831,15 +3941,15 @@
         <v>9</v>
       </c>
       <c r="E30" s="9">
-        <f>0.00007423*(C30^$R$8)*(D30^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.13459170960969424</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5446900494077322E-2</v>
       </c>
-      <c r="G30" s="16">
-        <f t="shared" si="1"/>
+      <c r="G30" s="14">
+        <f t="shared" si="2"/>
         <v>39.297516812813669</v>
       </c>
       <c r="H30" s="9">
@@ -3854,12 +3964,12 @@
         <v>4</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <v>5</v>
       </c>
       <c r="B31" s="4">
@@ -3872,15 +3982,15 @@
         <v>10</v>
       </c>
       <c r="E31" s="9">
-        <f>0.00007423*(C31^$R$8)*(D31^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>0.12317212610843258</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9855650968850891E-2</v>
       </c>
-      <c r="G31" s="16">
-        <f t="shared" si="1"/>
+      <c r="G31" s="14">
+        <f t="shared" si="2"/>
         <v>50.363496093317615</v>
       </c>
       <c r="H31" s="9">
@@ -3895,12 +4005,12 @@
         <v>9</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>5</v>
       </c>
       <c r="B32" s="4">
@@ -3913,15 +4023,15 @@
         <v>5</v>
       </c>
       <c r="E32" s="9">
-        <f>0.00007423*(C32^$R$8)*(D32^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.3564022062031051E-2</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3898113194065902E-3</v>
       </c>
-      <c r="G32" s="16">
-        <f t="shared" si="1"/>
+      <c r="G32" s="14">
+        <f t="shared" si="2"/>
         <v>135.32145230472557</v>
       </c>
       <c r="H32" s="9">
@@ -3936,12 +4046,12 @@
         <v>9</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="15">
+      <c r="A33" s="13">
         <v>5</v>
       </c>
       <c r="B33" s="4">
@@ -3954,15 +4064,15 @@
         <v>6</v>
       </c>
       <c r="E33" s="9">
-        <f>0.00007423*(C33^$R$8)*(D33^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.8141200047422661E-2</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0882184246619699E-3</v>
       </c>
-      <c r="G33" s="16">
-        <f t="shared" si="1"/>
+      <c r="G33" s="14">
+        <f t="shared" si="2"/>
         <v>141.07917393187401</v>
       </c>
       <c r="H33" s="9">
@@ -3982,7 +4092,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
+      <c r="A34" s="13">
         <v>5</v>
       </c>
       <c r="B34" s="4">
@@ -3995,15 +4105,15 @@
         <v>6</v>
       </c>
       <c r="E34" s="9">
-        <f>0.00007423*(C34^$R$8)*(D34^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>1.7530451215765873E-2</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0715040790523724E-3</v>
       </c>
-      <c r="G34" s="16">
-        <f t="shared" si="1"/>
+      <c r="G34" s="14">
+        <f t="shared" si="2"/>
         <v>245.60948008008538</v>
       </c>
       <c r="H34" s="9">
@@ -4020,7 +4130,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
+      <c r="A35" s="13">
         <v>5</v>
       </c>
       <c r="B35" s="4">
@@ -4033,15 +4143,15 @@
         <v>5.5</v>
       </c>
       <c r="E35" s="9">
-        <f>0.00007423*(C35^$R$8)*(D35^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.2306125841646509E-2</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0821233773498407E-3</v>
       </c>
-      <c r="G35" s="16">
-        <f t="shared" si="1"/>
+      <c r="G35" s="14">
+        <f t="shared" si="2"/>
         <v>164.41626352468523</v>
       </c>
       <c r="H35" s="9">
@@ -4050,7 +4160,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="A36" s="13">
         <v>5</v>
       </c>
       <c r="B36" s="4">
@@ -4063,15 +4173,15 @@
         <v>6</v>
       </c>
       <c r="E36" s="9">
-        <f>0.00007423*(C36^$R$8)*(D36^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>2.0539505829534638E-2</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9016699377634754E-3</v>
       </c>
-      <c r="G36" s="16">
-        <f t="shared" si="1"/>
+      <c r="G36" s="14">
+        <f t="shared" si="2"/>
         <v>204.01210458823306</v>
       </c>
       <c r="H36" s="9">
@@ -4080,7 +4190,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A37" s="15">
+      <c r="A37" s="13">
         <v>5</v>
       </c>
       <c r="B37" s="4">
@@ -4093,59 +4203,59 @@
         <v>6.5</v>
       </c>
       <c r="E37" s="9">
-        <f>0.00007423*(C37^$R$8)*(D37^$R$9)</f>
+        <f t="shared" si="0"/>
         <v>1.9708258339053129E-2</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1853868127450016E-3</v>
       </c>
-      <c r="G37" s="16">
-        <f t="shared" si="1"/>
+      <c r="G37" s="14">
+        <f t="shared" si="2"/>
         <v>238.92654245358656</v>
       </c>
       <c r="H37" s="9">
         <f>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</f>
         <v>4.7088260227320289</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A38" s="20">
+      <c r="A38" s="18">
         <v>5</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="19">
         <v>9</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="20">
         <v>21.8</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="20">
         <v>12</v>
       </c>
-      <c r="E38" s="23">
-        <f>0.00007423*(C38^$R$8)*(D38^$R$9)</f>
+      <c r="E38" s="21">
+        <f t="shared" si="0"/>
         <v>0.26125341476480812</v>
       </c>
-      <c r="F38" s="23">
-        <f t="shared" si="0"/>
+      <c r="F38" s="21">
+        <f t="shared" si="1"/>
         <v>3.732526231730033E-2</v>
       </c>
-      <c r="G38" s="24">
-        <f t="shared" si="1"/>
+      <c r="G38" s="22">
+        <f t="shared" si="2"/>
         <v>26.791506285985246</v>
       </c>
       <c r="H38" s="9">
@@ -4177,7 +4287,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="L45" s="1" t="s">
@@ -4193,7 +4303,7 @@
       <c r="L46" s="1">
         <v>1</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46" s="23">
         <f>SUMIF(Tabela1[Ponto],L46,Tabela1[1/gi])</f>
         <v>409.25440594015629</v>
       </c>
@@ -4204,7 +4314,7 @@
       <c r="L47" s="1">
         <v>2</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47" s="23">
         <f>SUMIF(Tabela1[Ponto],L47,Tabela1[1/gi])</f>
         <v>1728.5979111019494</v>
       </c>
@@ -4215,7 +4325,7 @@
       <c r="L48" s="1">
         <v>3</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="23">
         <f>SUMIF(Tabela1[Ponto],L48,Tabela1[1/gi])</f>
         <v>151.99481795177212</v>
       </c>
@@ -4226,7 +4336,7 @@
       <c r="L49" s="1">
         <v>4</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="23">
         <f>SUMIF(Tabela1[Ponto],L49,Tabela1[1/gi])</f>
         <v>1310.0755694706354</v>
       </c>
@@ -4237,7 +4347,7 @@
       <c r="L50" s="1">
         <v>5</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="23">
         <f>SUMIF(Tabela1[Ponto],L50,Tabela1[1/gi])</f>
         <v>1245.8175360753064</v>
       </c>
@@ -4248,7 +4358,7 @@
       <c r="L51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="26">
+      <c r="M51" s="24">
         <f>SUM(M46:M50)</f>
         <v>4845.7402405398198</v>
       </c>
@@ -4259,7 +4369,7 @@
       <c r="L52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="24">
         <f>AVERAGE(M46:M50)</f>
         <v>969.14804810796397</v>
       </c>
@@ -4275,20 +4385,20 @@
     <row r="55" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
     </row>
     <row r="56" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C56" s="2"/>
@@ -4334,7 +4444,7 @@
       <c r="L64" s="1">
         <v>1</v>
       </c>
-      <c r="M64" s="25">
+      <c r="M64" s="23">
         <f>SUMIF(Tabela1[Ponto],L64,Tabela1[(FAB/gi).vi])</f>
         <v>36.375615666442307</v>
       </c>
@@ -4345,7 +4455,7 @@
       <c r="L65" s="1">
         <v>2</v>
       </c>
-      <c r="M65" s="25">
+      <c r="M65" s="23">
         <f>SUMIF(Tabela1[Ponto],L65,Tabela1[(FAB/gi).vi])</f>
         <v>48.979529827487553</v>
       </c>
@@ -4356,7 +4466,7 @@
       <c r="L66" s="1">
         <v>3</v>
       </c>
-      <c r="M66" s="25">
+      <c r="M66" s="23">
         <f>SUMIF(Tabela1[Ponto],L66,Tabela1[(FAB/gi).vi])</f>
         <v>37.548106599582269</v>
       </c>
@@ -4367,7 +4477,7 @@
       <c r="L67" s="1">
         <v>4</v>
       </c>
-      <c r="M67" s="25">
+      <c r="M67" s="23">
         <f>SUMIF(Tabela1[Ponto],L67,Tabela1[(FAB/gi).vi])</f>
         <v>50.425728326458618</v>
       </c>
@@ -4378,7 +4488,7 @@
       <c r="L68" s="1">
         <v>5</v>
       </c>
-      <c r="M68" s="25">
+      <c r="M68" s="23">
         <f>SUMIF(Tabela1[Ponto],L68,Tabela1[(FAB/gi).vi])</f>
         <v>42.522995018429242</v>
       </c>
@@ -4389,7 +4499,7 @@
       <c r="L69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="26">
+      <c r="M69" s="24">
         <f>SUM(M64:M68)</f>
         <v>215.85197543839999</v>
       </c>
@@ -4400,7 +4510,7 @@
       <c r="L70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M70" s="26">
+      <c r="M70" s="24">
         <f>AVERAGE(M64:M68)</f>
         <v>43.170395087679999</v>
       </c>
@@ -5039,4 +5149,93 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCFCC2F-9D58-405D-B7B4-41BA4B423D4E}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Slides/data/Bitterlich-Soares-et-al-2010.xlsx
+++ b/Slides/data/Bitterlich-Soares-et-al-2010.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49869943-7D92-47AD-BD74-B81FB7307808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3C7B9-D2AA-4D1F-86F1-53642FC286FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{3B2AB8B8-5136-4B86-B46E-9285716F707E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{3B2AB8B8-5136-4B86-B46E-9285716F707E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>d (cm)</t>
   </si>
@@ -635,102 +634,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -2525,41 +2429,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3FEA631-F8D7-4F78-B89C-85241BA305F9}" name="Tabela1" displayName="Tabela1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3FEA631-F8D7-4F78-B89C-85241BA305F9}" name="Tabela1" displayName="Tabela1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H38" xr:uid="{B3FEA631-F8D7-4F78-B89C-85241BA305F9}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E3613D79-5B5F-4313-91AC-810567F60D8F}" name="Ponto" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{136F5277-00AB-4508-82E8-16D9C07EF2C1}" name="Árvore" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4EB25418-A154-4F02-894C-B97408284556}" name="d (cm)" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5AE7A31E-3E5A-4190-B7C5-46C854B678B7}" name="Ht (m)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A96508DE-D8A0-45A7-A34D-C71CA3972004}" name="Vi (m³)" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{E3613D79-5B5F-4313-91AC-810567F60D8F}" name="Ponto" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{136F5277-00AB-4508-82E8-16D9C07EF2C1}" name="Árvore" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4EB25418-A154-4F02-894C-B97408284556}" name="d (cm)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5AE7A31E-3E5A-4190-B7C5-46C854B678B7}" name="Ht (m)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A96508DE-D8A0-45A7-A34D-C71CA3972004}" name="Vi (m³)" dataDxfId="3">
       <calculatedColumnFormula>0.00007423*(C2^$R$8)*(D2^$R$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0936FEC6-1D14-4FD7-AA01-AA38806CEA54}" name="gi (m²)" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{0936FEC6-1D14-4FD7-AA01-AA38806CEA54}" name="gi (m²)" dataDxfId="2">
       <calculatedColumnFormula>PI()*C2^2/40000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DEF814C7-F947-486E-96D7-C53D61F1748C}" name="1/gi" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{DEF814C7-F947-486E-96D7-C53D61F1748C}" name="1/gi" dataDxfId="1">
       <calculatedColumnFormula>1/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{04CDF7FF-5C72-4241-95F4-44BA85AD6F82}" name="(FAB/gi).vi" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{04CDF7FF-5C72-4241-95F4-44BA85AD6F82}" name="(FAB/gi).vi" dataDxfId="0">
       <calculatedColumnFormula>($M$8/Tabela1[[#This Row],[gi (m²)]])*Tabela1[[#This Row],[Vi (m³)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41B9612C-9E24-4B9F-A5B2-2A18E5201561}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{41B9612C-9E24-4B9F-A5B2-2A18E5201561}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{38ED5867-942A-4A62-85F2-DEE652999A22}" name="Ponto" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0892E2FC-CDA5-4413-AC65-66786DBDDAC8}" name="m" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D0A35509-F5FB-4D83-A6DD-383CA9B3D015}" name="G ( m².ha-1)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{115B6053-4CFD-4682-9195-EC9D2155AD9F}" name="N ( Árvore.ha-1)"/>
-    <tableColumn id="5" xr3:uid="{0FC480E7-33B0-436D-9BB1-743F91A1D3A2}" name="V ( m³.ha-1)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2882,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD45D73-7E86-4845-95AA-3943C596FDA3}">
   <dimension ref="A1:W224"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5149,93 +5039,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCFCC2F-9D58-405D-B7B4-41BA4B423D4E}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Slides/data/Bitterlich-Soares-et-al-2010.xlsx
+++ b/Slides/data/Bitterlich-Soares-et-al-2010.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3C7B9-D2AA-4D1F-86F1-53642FC286FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FEB3C7B9-D2AA-4D1F-86F1-53642FC286FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA9D00A-8747-4AB0-A529-AB15C991C2C7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{3B2AB8B8-5136-4B86-B46E-9285716F707E}"/>
   </bookViews>
@@ -2773,7 +2773,7 @@
   <dimension ref="A1:W224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:W19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
